--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>User Story ID</t>
   </si>
@@ -152,9 +153,6 @@
     <t>Posiadanie bay danych, która przechowuje wszystkie potrzebne rekordy</t>
   </si>
   <si>
-    <t>Netcode</t>
-  </si>
-  <si>
     <t>Praca nad aplikacją systemów płatniczych w aplikacji</t>
   </si>
   <si>
@@ -180,6 +178,33 @@
   </si>
   <si>
     <t>Posiadanie serwera będącego w stanie obsłużyć klientów zdalnie</t>
+  </si>
+  <si>
+    <t>Server Manager</t>
+  </si>
+  <si>
+    <t>Praca nad API</t>
+  </si>
+  <si>
+    <t>Budowa sieci w budynku</t>
+  </si>
+  <si>
+    <t>Testowanie aplikacji</t>
+  </si>
+  <si>
+    <t>Opracowanie API</t>
+  </si>
+  <si>
+    <t>Upewnienie się, że aplikacja przechodzi wszystkie wymagane testy</t>
+  </si>
+  <si>
+    <t>Upewnienie się, że każdy członek zespołu wykonuje  swoje zadanie</t>
+  </si>
+  <si>
+    <t>Safety specialist</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -240,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -249,6 +274,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +584,7 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -573,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -583,14 +612,16 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -663,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -677,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -691,9 +722,9 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -703,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -717,10 +748,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -728,13 +759,41 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
